--- a/results/mp/deberta/corona/confidence/42/stop-words-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-0.15/avg_0.003_scores.xlsx
@@ -97,10 +97,10 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>support</t>
   </si>
   <si>
     <t>heroes</t>
@@ -1120,25 +1120,25 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.6594827586206896</v>
+        <v>0.6534653465346535</v>
       </c>
       <c r="L19">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="M19">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="N19">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O19">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1146,25 +1146,25 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.6534653465346535</v>
+        <v>0.6401673640167364</v>
       </c>
       <c r="L20">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="M20">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="N20">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>35</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1250,25 +1250,25 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.5213414634146342</v>
+        <v>0.5029411764705882</v>
       </c>
       <c r="L24">
         <v>171</v>
       </c>
       <c r="M24">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="N24">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="10:17">
